--- a/data/trans_bre/P5_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>-0,42%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 14,89</t>
+          <t>-18,34; 24,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 11,9</t>
+          <t>-21,19; 28,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 57,41</t>
+          <t>-38,33; 122,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 37,88</t>
+          <t>-41,73; 131,86</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 7,5</t>
+          <t>-9,62; 12,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 9,03</t>
+          <t>-9,5; 12,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 22,15</t>
+          <t>-21,53; 40,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 27,4</t>
+          <t>-21,13; 41,16</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-24,09%</t>
+          <t>-12,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>-16,4%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,58; -2,16</t>
+          <t>-15,95; 6,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -3,41</t>
+          <t>-17,38; 5,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,61; -5,36</t>
+          <t>-32,41; 18,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,0; -7,89</t>
+          <t>-36,18; 15,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 4,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 2,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-3,05%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-5,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 6,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,67; 5,86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-19,42; 18,64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 16,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.538800165379611</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.9686721535077936</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.04465864002607808</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.02520988754284836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,34; 24,88</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-21,19; 28,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-38,33; 122,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-41,73; 131,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.33505657379563</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-22.07451269757161</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.383320865500859</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.435908604599356</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.88476639728128</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>24.91179779352509</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.221874661980896</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.089809811548616</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; 12,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 12,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,53; 40,06</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-21,13; 41,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.316841481167325</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.042492546841079</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.03421798454387443</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.05324894267497635</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,91</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-12,22%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-16,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.621421373116849</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.362224609996114</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2152996984563629</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2106595769578249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,95; 6,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,38; 5,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-32,41; 18,25</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-36,18; 15,29</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.91932402744077</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.65168479586825</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.4005840846581013</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.4205152090744075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.14123442091905</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.969269339073229</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.1222418611792554</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1217953304190122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.95434586122556</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.74655740598342</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3241275781622928</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3450771243182648</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.631427691700721</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.251167554064378</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1825027452751316</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2199892920786869</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,05%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 6,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; 5,86</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; 18,64</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-21,78; 16,1</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.196324473343985</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.161683431241822</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.03045177496205123</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0295540672897916</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.576712634019081</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.660257956009113</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1942435647269184</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1982402097170465</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.410776777520883</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.488000552373084</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1864059416871298</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2264079125821817</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
